--- a/test_excel_upload.xlsx
+++ b/test_excel_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\csProject\CyberSeller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC57391-55B5-4A1F-B463-00B846582CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EC85A6-0789-48CD-AA33-87A14202E028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="2112" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,8 @@
     <t>发布日期</t>
   </si>
   <si>
-    <t>2022.2.23</t>
+    <t>2022.12.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -358,7 +359,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
